--- a/RAT路径及命名一览表.xlsx
+++ b/RAT路径及命名一览表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,11 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RAT不工作
-连接不上 or 其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C:\tools\rats\jSpy</t>
   </si>
   <si>
@@ -135,10 +130,6 @@
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UiPath不支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,6 +159,56 @@
   </si>
   <si>
     <t>操作不流畅，Keylogger不稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\tools\rats\Alusinus RAT v0.8</t>
+  </si>
+  <si>
+    <t>Alusinus.exe</t>
+  </si>
+  <si>
+    <t>server.exe</t>
+  </si>
+  <si>
+    <t>offline A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>online A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java, 暂不支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\tools\rats\Alusinus RAT v0.9</t>
+  </si>
+  <si>
+    <t>添加时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path.Combine("c:\tools\output\Alusinus-v0.8-Keylogger.traces", DateTime.Now.Tostring("yy-MM-dd-HH-mm-ss"))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\tools\rats\Bozok 1.5.1</t>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无Keylogger</t>
+  </si>
+  <si>
+    <t>RAT不工作, 连接不上 or 其他</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +226,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -211,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,6 +269,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -538,7 +596,7 @@
     <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
     <col min="6" max="10" width="9" style="1"/>
     <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="40.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="49.125" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -639,7 +697,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -662,7 +720,7 @@
         <v>14</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
@@ -688,7 +746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -708,7 +766,7 @@
         <v>28</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -716,22 +774,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -739,10 +797,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>5</v>
@@ -750,39 +808,135 @@
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="12">
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
